--- a/Opale/Maquette.xlsx
+++ b/Opale/Maquette.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="730" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Consultation bébés" sheetId="12" r:id="rId12"/>
     <sheet name="Choix type doc" sheetId="13" r:id="rId13"/>
     <sheet name="Facturation" sheetId="15" r:id="rId14"/>
+    <sheet name="Statistiques" sheetId="16" r:id="rId15"/>
+    <sheet name="Pro" sheetId="17" r:id="rId16"/>
+    <sheet name="Compta" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -290,7 +293,7 @@
     <author>Camille Maurice</author>
   </authors>
   <commentList>
-    <comment ref="H27" authorId="0">
+    <comment ref="H34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
   <si>
     <t>Nom</t>
   </si>
@@ -862,27 +865,6 @@
     <t>Intitulé</t>
   </si>
   <si>
-    <t>Chronologie</t>
-  </si>
-  <si>
-    <t>Facteur déclenchant</t>
-  </si>
-  <si>
-    <t>Facteur majorant</t>
-  </si>
-  <si>
-    <t>Facteur minorant</t>
-  </si>
-  <si>
-    <t>Allure</t>
-  </si>
-  <si>
-    <t>Signes associés</t>
-  </si>
-  <si>
-    <t>Examen complémentaire</t>
-  </si>
-  <si>
     <t>Objets liés</t>
   </si>
   <si>
@@ -955,9 +937,6 @@
     <t>Lettres / Examens complémentaires / Carnet de santé</t>
   </si>
   <si>
-    <t>Lettres</t>
-  </si>
-  <si>
     <t>Colonne1</t>
   </si>
   <si>
@@ -1043,6 +1022,60 @@
   </si>
   <si>
     <t>Urinaire</t>
+  </si>
+  <si>
+    <t>Documents associés</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Alimentations / Selles</t>
+  </si>
+  <si>
+    <t>Ajouter champ "Addressé par" : "Bouche à Oreille", "Internet",  "Annuaires", "Emmannuelle Cormier", "Florence", Autres + Champ libre</t>
+  </si>
+  <si>
+    <t>Nombre de consultations : par semaine / mois / an + Comparaison entre années</t>
+  </si>
+  <si>
+    <t>Recettes (Somme facturation consultations) : par semaine / mois / an + Comparaison</t>
+  </si>
+  <si>
+    <t>Taux fréquentation (par semaine / mois / ans) : par sexe, age, CSP</t>
+  </si>
+  <si>
+    <t>Taux selon source (adressé par)</t>
+  </si>
+  <si>
+    <t>Taux nouveaux patient</t>
+  </si>
+  <si>
+    <t>Taux patient revenant</t>
+  </si>
+  <si>
+    <t>Statistiques par patient</t>
+  </si>
+  <si>
+    <t>Fiches pro</t>
+  </si>
+  <si>
+    <t>Spécialité</t>
+  </si>
+  <si>
+    <t>N° tel</t>
+  </si>
+  <si>
+    <t>Listes courriers</t>
+  </si>
+  <si>
+    <t>Recette agrégée au mois</t>
+  </si>
+  <si>
+    <t>Détail à la journée</t>
+  </si>
+  <si>
+    <t>Saisie dépense (informatif)</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1616,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1762,6 +1795,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -1868,7 +1904,26 @@
     <cellStyle name="Titre 2" xfId="34" builtinId="17"/>
     <cellStyle name="Titre 3" xfId="35" builtinId="18"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Wingdings-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -2063,26 +2118,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="C4:K9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="C4:K9"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="C4:D6" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="C4:D6"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="Intitulé" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Chronologie" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Facteur déclenchant" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Facteur majorant" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Facteur minorant" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Allure" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Signes associés" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Examen complémentaire" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Objets liés" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Objets liés" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="H23:J25" totalsRowShown="0">
-  <autoFilter ref="H23:J25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="H30:J32" totalsRowShown="0">
+  <autoFilter ref="H30:J32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Intitulé"/>
     <tableColumn id="2" name="Date"/>
@@ -2632,7 +2680,7 @@
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -2643,12 +2691,12 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +3008,7 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E14" s="8"/>
       <c r="I14" s="8"/>
@@ -2981,7 +3029,7 @@
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E16" s="8"/>
       <c r="I16" s="8"/>
@@ -2998,11 +3046,11 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8"/>
       <c r="I18" s="8"/>
@@ -3035,13 +3083,13 @@
     </row>
     <row r="22" spans="2:11" ht="16" thickTop="1">
       <c r="B22" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="57"/>
       <c r="E22" s="58"/>
       <c r="G22" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H22" s="56"/>
       <c r="I22" s="57"/>
@@ -3124,15 +3172,15 @@
     </row>
     <row r="31" spans="2:11" ht="16" thickTop="1">
       <c r="B31" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="G31" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="57"/>
@@ -3164,7 +3212,7 @@
     </row>
     <row r="35" spans="2:10" ht="16" thickTop="1">
       <c r="C35" s="68" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="77"/>
@@ -3199,7 +3247,7 @@
     <row r="39" spans="2:10" ht="17" thickTop="1" thickBot="1"/>
     <row r="40" spans="2:10" ht="16" thickTop="1">
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
@@ -3243,19 +3291,19 @@
     <row r="48" spans="2:10" ht="16" thickTop="1"/>
     <row r="50" spans="2:11" ht="30">
       <c r="B50" s="29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -3267,10 +3315,10 @@
         <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
@@ -3281,23 +3329,23 @@
     <row r="52" spans="2:11">
       <c r="B52" s="24"/>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="24"/>
       <c r="C54" s="30" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F54" s="24"/>
     </row>
@@ -3362,18 +3410,18 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3410,26 +3458,26 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="24"/>
       <c r="G2" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D3" s="24">
         <v>50</v>
@@ -3442,10 +3490,10 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="35" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D4" s="24">
         <v>45</v>
@@ -3454,10 +3502,10 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D5" s="24">
         <v>40</v>
@@ -3466,10 +3514,10 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D6" s="24">
         <v>0</v>
@@ -3478,17 +3526,17 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E7" s="24"/>
       <c r="G7" s="27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -3523,6 +3571,182 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20" thickBot="1">
+      <c r="A1" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickTop="1"/>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickBot="1">
+      <c r="A1" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickTop="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickBot="1">
+      <c r="A1" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickTop="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3714,7 +3938,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3924,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4051,9 +4275,37 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4447,7 +4699,7 @@
     <row r="40" spans="2:7" outlineLevel="1"/>
     <row r="41" spans="2:7" ht="17" thickBot="1">
       <c r="B41" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -4458,7 +4710,7 @@
     <row r="42" spans="2:7" ht="16" thickTop="1"/>
     <row r="43" spans="2:7" ht="16" thickBot="1">
       <c r="B43" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -4471,7 +4723,7 @@
     </row>
     <row r="47" spans="2:7" ht="16" thickBot="1">
       <c r="B47" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -4484,7 +4736,7 @@
     </row>
     <row r="51" spans="2:4" ht="16" thickBot="1">
       <c r="B51" s="17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -4497,7 +4749,7 @@
     </row>
     <row r="55" spans="2:4" ht="16" thickBot="1">
       <c r="B55" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -4510,7 +4762,7 @@
     </row>
     <row r="59" spans="2:4" ht="16" thickBot="1">
       <c r="B59" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -4575,7 +4827,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4619,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4646,232 +4898,242 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="22" t="s">
-        <v>107</v>
-      </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="2:11">
+      <c r="D6" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="2:11" ht="16" thickBot="1"/>
+    <row r="8" spans="2:11" ht="16" thickTop="1">
+      <c r="B8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1"/>
-    <row r="12" spans="2:11" ht="16" thickTop="1">
-      <c r="B12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="G12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
       <c r="E14" s="43"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" thickTop="1"/>
-    <row r="22" spans="2:11" ht="16" thickBot="1"/>
-    <row r="23" spans="2:11" ht="16" thickTop="1">
-      <c r="B23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickTop="1"/>
+    <row r="18" spans="2:11" ht="16" thickBot="1"/>
+    <row r="19" spans="2:11" ht="16" thickTop="1">
+      <c r="B19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="G19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="2:11" ht="16" thickBot="1">
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="2:11" ht="16" thickTop="1"/>
+    <row r="29" spans="2:11" ht="16" thickBot="1"/>
+    <row r="30" spans="2:11" ht="16" thickTop="1">
+      <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="G30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
         <v>97</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I30" t="s">
         <v>89</v>
       </c>
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="H27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="2:11" ht="16" thickTop="1"/>
+      <c r="J30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+    </row>
     <row r="32" spans="2:11">
-      <c r="C32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>116</v>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="H34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+    </row>
+    <row r="37" spans="3:10" ht="16" thickBot="1">
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="3:10" ht="16" thickTop="1"/>
+    <row r="39" spans="3:10">
+      <c r="C39" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C12:E19"/>
-    <mergeCell ref="I12:K19"/>
-    <mergeCell ref="C23:E30"/>
+  <mergeCells count="4">
+    <mergeCell ref="C19:E26"/>
+    <mergeCell ref="I19:K26"/>
+    <mergeCell ref="C30:E37"/>
+    <mergeCell ref="C8:E15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6">
       <formula1>"Mécanique,Inflamatoire,Non définie"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K5" location="'Objets liés motif'!A1" display=""/>
+    <hyperlink ref="D5" location="'Objets liés motif'!A1" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Opale/Maquette.xlsx
+++ b/Opale/Maquette.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="730" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="171">
   <si>
     <t>Nom</t>
   </si>
@@ -670,9 +670,6 @@
     <t>Réseau pro.</t>
   </si>
   <si>
-    <t>Format Mois + Sem.</t>
-  </si>
-  <si>
     <t>Format 'SA' (semaines d'aménorhée)</t>
   </si>
   <si>
@@ -1076,6 +1073,15 @@
   </si>
   <si>
     <t>Saisie dépense (informatif)</t>
+  </si>
+  <si>
+    <t>Format Mois + Sem. + jours</t>
+  </si>
+  <si>
+    <t>Terme en Semaines + jours</t>
+  </si>
+  <si>
+    <t>A prendre comme premiers points des courbes</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,6 +1278,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1616,7 +1628,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1797,6 +1809,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="103">
@@ -2532,7 +2547,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>17</v>
@@ -2677,26 +2692,26 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2734,34 +2749,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -2921,14 +2936,14 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1"/>
     <row r="4" spans="2:11" ht="16" thickTop="1">
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="57"/>
@@ -3004,11 +3019,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="8"/>
       <c r="I14" s="8"/>
@@ -3025,11 +3040,11 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="8"/>
       <c r="I16" s="8"/>
@@ -3046,11 +3061,11 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8"/>
       <c r="I18" s="8"/>
@@ -3083,13 +3098,13 @@
     </row>
     <row r="22" spans="2:11" ht="16" thickTop="1">
       <c r="B22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="57"/>
       <c r="E22" s="58"/>
       <c r="G22" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="56"/>
       <c r="I22" s="57"/>
@@ -3172,15 +3187,15 @@
     </row>
     <row r="31" spans="2:11" ht="16" thickTop="1">
       <c r="B31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="68" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>116</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="G31" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="57"/>
@@ -3212,7 +3227,7 @@
     </row>
     <row r="35" spans="2:10" ht="16" thickTop="1">
       <c r="C35" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="77"/>
@@ -3247,7 +3262,7 @@
     <row r="39" spans="2:10" ht="17" thickTop="1" thickBot="1"/>
     <row r="40" spans="2:10" ht="16" thickTop="1">
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
@@ -3291,34 +3306,34 @@
     <row r="48" spans="2:10" ht="16" thickTop="1"/>
     <row r="50" spans="2:11" ht="30">
       <c r="B50" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>123</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>124</v>
-      </c>
-      <c r="F50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="24"/>
       <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
@@ -3329,23 +3344,23 @@
     <row r="52" spans="2:11">
       <c r="B52" s="24"/>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="24"/>
       <c r="C54" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="24"/>
     </row>
@@ -3410,18 +3425,18 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3458,42 +3473,42 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="24"/>
       <c r="G2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="24">
         <v>50</v>
       </c>
       <c r="E3" s="24"/>
       <c r="G3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="24">
         <v>45</v>
@@ -3502,10 +3517,10 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="24">
         <v>40</v>
@@ -3514,10 +3529,10 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="24">
         <v>0</v>
@@ -3526,17 +3541,17 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="E7" s="24"/>
       <c r="G7" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -3604,37 +3619,37 @@
     <row r="2" spans="1:8" ht="16" thickTop="1"/>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3654,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -3662,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" thickBot="1">
       <c r="A1" s="80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -3674,7 +3689,7 @@
     <row r="2" spans="1:7" ht="16" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3684,12 +3699,12 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3729,17 +3744,17 @@
     <row r="2" spans="1:7" ht="16" thickTop="1"/>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3877,13 +3892,13 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3895,7 +3910,7 @@
     </row>
     <row r="8" spans="2:5" ht="20" thickBot="1">
       <c r="B8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3907,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3975,7 +3990,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -4120,7 +4135,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -4150,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4159,6 +4174,7 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" customWidth="1"/>
   </cols>
@@ -4179,11 +4195,14 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="6"/>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
@@ -4193,124 +4212,132 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
+      <c r="H6" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="2:11">
+      <c r="H8" s="81"/>
       <c r="I8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H6:H10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
@@ -4359,7 +4386,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -4368,67 +4395,67 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
       <c r="I4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="I5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="I8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5"/>
       <c r="I10" s="10"/>
@@ -4436,31 +4463,31 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -4522,98 +4549,98 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:10">
       <c r="I8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
       <c r="I11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1">
       <c r="B19" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4624,7 +4651,7 @@
     <row r="20" spans="2:7" ht="16" outlineLevel="1" thickTop="1"/>
     <row r="21" spans="2:7" ht="16" outlineLevel="1" thickBot="1">
       <c r="B21" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4632,14 +4659,14 @@
     <row r="22" spans="2:7" outlineLevel="2">
       <c r="B22" s="5"/>
       <c r="C22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:7" outlineLevel="2"/>
     <row r="24" spans="2:7" outlineLevel="1"/>
     <row r="25" spans="2:7" ht="16" outlineLevel="1" thickBot="1">
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -4647,14 +4674,14 @@
     <row r="26" spans="2:7" outlineLevel="2">
       <c r="B26" s="5"/>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:7" outlineLevel="2"/>
     <row r="28" spans="2:7" outlineLevel="1"/>
     <row r="29" spans="2:7" ht="16" outlineLevel="1" thickBot="1">
       <c r="B29" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -4662,14 +4689,14 @@
     <row r="30" spans="2:7" outlineLevel="2">
       <c r="B30" s="5"/>
       <c r="C30" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:7" outlineLevel="2"/>
     <row r="32" spans="2:7" outlineLevel="1"/>
     <row r="33" spans="2:7" ht="16" outlineLevel="1" thickBot="1">
       <c r="B33" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4677,14 +4704,14 @@
     <row r="34" spans="2:7" outlineLevel="2">
       <c r="B34" s="5"/>
       <c r="C34" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:7" outlineLevel="2"/>
     <row r="36" spans="2:7" outlineLevel="1"/>
     <row r="37" spans="2:7" ht="16" outlineLevel="1" thickBot="1">
       <c r="B37" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -4692,14 +4719,14 @@
     <row r="38" spans="2:7" outlineLevel="2">
       <c r="B38" s="5"/>
       <c r="C38" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:7" outlineLevel="2"/>
     <row r="40" spans="2:7" outlineLevel="1"/>
     <row r="41" spans="2:7" ht="17" thickBot="1">
       <c r="B41" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -4710,7 +4737,7 @@
     <row r="42" spans="2:7" ht="16" thickTop="1"/>
     <row r="43" spans="2:7" ht="16" thickBot="1">
       <c r="B43" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -4718,12 +4745,12 @@
     <row r="44" spans="2:7">
       <c r="B44" s="5"/>
       <c r="C44" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="16" thickBot="1">
       <c r="B47" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -4731,12 +4758,12 @@
     <row r="48" spans="2:7">
       <c r="B48" s="5"/>
       <c r="C48" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16" thickBot="1">
       <c r="B51" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -4744,12 +4771,12 @@
     <row r="52" spans="2:4">
       <c r="B52" s="5"/>
       <c r="C52" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="16" thickBot="1">
       <c r="B55" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -4757,12 +4784,12 @@
     <row r="56" spans="2:4">
       <c r="B56" s="5"/>
       <c r="C56" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="16" thickBot="1">
       <c r="B59" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -4770,7 +4797,7 @@
     <row r="60" spans="2:4">
       <c r="B60" s="5"/>
       <c r="C60" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4820,36 +4847,36 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4892,19 +4919,19 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -4913,10 +4940,10 @@
     </row>
     <row r="5" spans="2:11">
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -4925,7 +4952,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -4935,7 +4962,7 @@
     <row r="7" spans="2:11" ht="16" thickBot="1"/>
     <row r="8" spans="2:11" ht="16" thickTop="1">
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
@@ -4980,13 +5007,13 @@
     <row r="18" spans="2:11" ht="16" thickBot="1"/>
     <row r="19" spans="2:11" ht="16" thickTop="1">
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
       <c r="G19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
@@ -5052,22 +5079,22 @@
     <row r="29" spans="2:11" ht="16" thickBot="1"/>
     <row r="30" spans="2:11" ht="16" thickTop="1">
       <c r="B30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="G30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -5090,10 +5117,10 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
       <c r="H34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="3:10">
@@ -5114,10 +5141,10 @@
     <row r="38" spans="3:10" ht="16" thickTop="1"/>
     <row r="39" spans="3:10">
       <c r="C39" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
